--- a/bond_analysis_results_2026-02-04.xlsx
+++ b/bond_analysis_results_2026-02-04.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="短期债券" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中期债券" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长期债券" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="全部债券" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="主页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="短期债券" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中期债券" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长期债券" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="全部债券" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,14 +31,41 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE699"/>
+        <bgColor rgb="00FFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C5E0B4"/>
+        <bgColor rgb="00C5E0B4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,9 +86,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -428,6 +477,675 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="50" customWidth="1" min="8" max="8"/>
+    <col width="28" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>无风险短期债券选择</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>备注区</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>债券简称</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>税后年收益率</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>麦考利久期</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>剩余期限</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>到期日</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>票面利率</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>成交额(亿元)</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>***************************如果不清楚存款利率变化会给债券带来怎样的风险，请直接选择无风险短期债券区***************************
+1.推荐在四大行和招商银行购买。更推荐在招商银行购买，菜单更人性化。
+2.目前接口只能抓取到机构间的数据和收益率，实际利率会有一点降低，银行柜台债小概率会搜不到某个国债（未面向个人投资者），详情见银行。
+3.如何度量债券风险：一笔钱距离你越久远，利率变化对你即将获得的所有钱产生的蝴蝶效应越大。时间是决定债券波动率的决定因素。
+4.久期是什么？为什么久期能够估算利率的杠杆率？
+假设你购买了30年期限的，持有到期的年收益率为2%的国债，购买额度100万。每一年会给2万元利息，最后一年连本带息付102万。
+让我们想象一块无重力木板，将一整条木板等分成30份相同长度后划分刻度，第0年不付息，0这个刻度不放钱，1-29年在每一个刻度上放n年后的2万元，最后一个刻度上放30年后的102万
+然后，找到木板两边平衡的支点（重心），重心所在的刻度就是这段现金流的久期（久期单位为年）。这就是麦考利久期的物理意义——现金流时间的加权平均（权重是现金流的现值）。
+证明这段钱（受到利率的影响程度）等效于一个剩余期限为久期年的一笔钱。
+在本例中，想要获得久期，我们首先把未来的钱计算成现值。
+n年后的2万现值为20000/(1+0.02)^n
+第 1 年：≈ 1.9608 万元
+第 2 年：≈ 1.9223 万元
+…
+第 29 年：≈ 1.1395 万元
+第 30 年：102 万的现值 ≈ 56.3085 万元
+计算重心：
+分子 = (Σ(29,n=1) n * n年后现金流现值) + 30 * 56.3085 万元= 2285.348
+分母：所有现值重量的总和 = 债券价格 = 100 万元（总现值）
+（重心）久期 = 分子/分母 = 22.85年
+利率上升 1%，债券价值变化大约 -22.85%，实际计算为-19.99672%,误差符合预计。即由100万变为80万。
+利率下降 0.5%，债券价值变化大约 +11.43%，实际计算为+12.001026%,误差符合预计。即由100万变为112万。
+故久期基本上可以度量债券因未来利率变化的粗略波动幅度，即债券的风险度。
+参照自己的波动需求选择！</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>25附息国债08</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>1.251</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.1918</v>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>70天</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>2026-04-15</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>0.0137</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>25附息国债13</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>1.2284</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.4685</v>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>171天</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>2026-07-25</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1"/>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>中风险型债券选择</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>债券简称</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>税后年收益率</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>麦考利久期</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>剩余期限</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>到期日</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>票面利率</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>成交额(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>25附息国债20</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>1.5695</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>4.5625</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>4年264天</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>2030-10-25</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>0.0163</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>53.0848</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>25附息国债14</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>1.5261</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>4.318</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>4年172天</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>2030-07-25</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>22.9161</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>25附息国债03</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>1.507</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>3.8887</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>3年356天</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>2030-01-25</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>71.91500000000001</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>24附息国债14</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>1.4501</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>3.3315</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>3年162天</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>2029-07-15</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>22.11</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1"/>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>高风险长期债券选择</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>债券简称</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>税后年收益率</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>麦考利久期</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>剩余期限</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>到期日</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>票面利率</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>成交额(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>25超长特别国债03</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>2.4084</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>29.8502</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>49年122天</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>2075-05-25</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>24特别国债04</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>2.3406</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>20.7151</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>28年178天</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>2054-07-25</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>0.0247</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>24特别国债01</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>2.3399</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>20.3807</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>28年112天</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>2054-05-20</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>0.0257</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>12.722</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>24特别国债06</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>2.3355</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>21.1179</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>28年240天</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>2054-09-25</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>0.0219</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>44.3252</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>23附息国债23</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>2.3266</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>19.4547</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>27年260天</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>2053-10-15</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>34.703</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>21附息国债14</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>2.3251</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>17.8954</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>25年262天</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>2051-10-18</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>25超长特别国债05</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>2.3103</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>22.2772</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>29年168天</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>2055-07-15</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>25附息国债02</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>2.3059</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>21.9695</v>
+      </c>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>28年352天</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>2055-01-15</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>0.0192</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>25.5801</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>25超长特别国债01</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>2.2991</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>15.8873</v>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>19年85天</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>2045-04-25</t>
+        </is>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>0.0198</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>26附息国债02</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>2.2829</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>21.6532</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>29年352天</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>2056-01-15</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>79.5962</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -437,77 +1155,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>债券简称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>债券类型</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>剩余天数</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>剩余期限</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>税后收益率</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>税后年收益率</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>修正久期</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>麦考利久期</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>到期日</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
         <is>
           <t>票面利率</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="8" t="inlineStr">
         <is>
           <t>付息频率</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="8" t="inlineStr">
         <is>
           <t>付息方式</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="8" t="inlineStr">
         <is>
           <t>加权收益率</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="8" t="inlineStr">
         <is>
           <t>最新收益率</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="8" t="inlineStr">
         <is>
           <t>成交净价</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="8" t="inlineStr">
         <is>
           <t>成交额(亿元)</t>
         </is>
@@ -754,7 +1472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,77 +1487,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>债券简称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>债券类型</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>剩余天数</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>剩余期限</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>税后收益率</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>税后年收益率</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>修正久期</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>麦考利久期</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>到期日</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
         <is>
           <t>票面利率</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="8" t="inlineStr">
         <is>
           <t>付息频率</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="8" t="inlineStr">
         <is>
           <t>付息方式</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="8" t="inlineStr">
         <is>
           <t>加权收益率</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="8" t="inlineStr">
         <is>
           <t>最新收益率</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="8" t="inlineStr">
         <is>
           <t>成交净价</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="8" t="inlineStr">
         <is>
           <t>成交额(亿元)</t>
         </is>
@@ -2089,7 +2807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2104,77 +2822,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>债券简称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>债券类型</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>剩余天数</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>剩余期限</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>税后收益率</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>税后年收益率</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>修正久期</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>麦考利久期</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>到期日</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
         <is>
           <t>票面利率</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="8" t="inlineStr">
         <is>
           <t>付息频率</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="8" t="inlineStr">
         <is>
           <t>付息方式</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="8" t="inlineStr">
         <is>
           <t>加权收益率</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="8" t="inlineStr">
         <is>
           <t>最新收益率</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="8" t="inlineStr">
         <is>
           <t>成交净价</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="8" t="inlineStr">
         <is>
           <t>成交额(亿元)</t>
         </is>
@@ -3483,7 +4201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3498,77 +4216,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>债券简称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>债券类型</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>剩余天数</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>剩余期限</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>税后收益率</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>税后年收益率</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>修正久期</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>麦考利久期</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>到期日</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
         <is>
           <t>票面利率</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="8" t="inlineStr">
         <is>
           <t>付息频率</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="8" t="inlineStr">
         <is>
           <t>付息方式</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="8" t="inlineStr">
         <is>
           <t>加权收益率</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="8" t="inlineStr">
         <is>
           <t>最新收益率</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="8" t="inlineStr">
         <is>
           <t>成交净价</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="8" t="inlineStr">
         <is>
           <t>成交额(亿元)</t>
         </is>

--- a/bond_analysis_results_2026-02-04.xlsx
+++ b/bond_analysis_results_2026-02-04.xlsx
@@ -548,7 +548,7 @@
         <is>
           <t>***************************如果不清楚存款利率变化会给债券带来怎样的风险，请直接选择无风险短期债券区***************************
 1.推荐在四大行和招商银行购买。更推荐在招商银行购买，菜单更人性化。
-2.目前接口只能抓取到机构间的数据和收益率，实际利率会有一点降低，银行柜台债小概率会搜不到某个国债（未面向个人投资者），详情见银行。
+2.目前接口只能抓取到机构间的数据和收益率，实际利率会有一点点点点降低，银行柜台债小概率会搜不到某个国债（未面向个人投资者），详情见银行。
 3.如何度量债券风险：一笔钱距离你越久远，利率变化对你即将获得的所有钱产生的蝴蝶效应越大。时间是决定债券波动率的决定因素。
 4.久期是什么？为什么久期能够估算利率的杠杆率？
 假设你购买了30年期限的，持有到期的年收益率为2%的国债，购买额度100万。每一年会给2万元利息，最后一年连本带息付102万。
@@ -635,7 +635,7 @@
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>中风险型债券选择</t>
+          <t>中风险中期债券选择</t>
         </is>
       </c>
     </row>

--- a/bond_analysis_results_2026-02-04.xlsx
+++ b/bond_analysis_results_2026-02-04.xlsx
@@ -563,11 +563,11 @@
 第 29 年：≈ 1.1395 万元
 第 30 年：102 万的现值 ≈ 56.3085 万元
 计算重心：
-分子 = (Σ(29,n=1) n * n年后现金流现值) + 30 * 56.3085 万元= 2285.348
+分子 = (Σ(29,n=1) n * n年后现金流现值) + 30 * 56.3085 万元= 2285.348 万元
 分母：所有现值重量的总和 = 债券价格 = 100 万元（总现值）
 （重心）久期 = 分子/分母 = 22.85年
-利率上升 1%，债券价值变化大约 -22.85%，实际计算为-19.99672%,误差符合预计。即由100万变为80万。
-利率下降 0.5%，债券价值变化大约 +11.43%，实际计算为+12.001026%,误差符合预计。即由100万变为112万。
+如果利率上升 1%，债券价值变化大约 -22.85%，实际计算为-19.99672%,误差符合预计。即本例债券的现值会由原本的100万元变为大约80万元。
+如果利率下降 0.5%，债券价值变化大约 +11.43%，实际计算为+12.001026%,误差符合预计。即本例债券的现值会由原本的100万元变为大约112万元。
 故久期基本上可以度量债券因未来利率变化的粗略波动幅度，即债券的风险度。
 参照自己的波动需求选择！</t>
         </is>

--- a/bond_analysis_results_2026-02-04.xlsx
+++ b/bond_analysis_results_2026-02-04.xlsx
@@ -186,6 +186,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4914900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,15 +591,15 @@
 第 2 年：≈ 1.9223 万元
 …
 第 29 年：≈ 1.1395 万元
-第 30 年：102 万的现值 ≈ 56.3085 万元
+第 30 年：102 万的现值 ≈ 56.3112 万元
 计算重心：
-分子 = (Σ(29,n=1) n * n年后现金流现值) + 30 * 56.3085 万元= 2285.348 万元
+分子 = (Σ(29,n=1) n * n年后现金流现值) + 30 * 56.3112 万元= 2285.429 万元
 分母：所有现值重量的总和 = 债券价格 = 100 万元（总现值）
 （重心）久期 = 分子/分母 = 22.85年
 如果利率上升 1%，债券价值变化大约 -22.85%，实际计算为-19.99672%,误差符合预计。即本例债券的现值会由原本的100万元变为大约80万元。
 如果利率下降 0.5%，债券价值变化大约 +11.43%，实际计算为+12.001026%,误差符合预计。即本例债券的现值会由原本的100万元变为大约112万元。
 故久期基本上可以度量债券因未来利率变化的粗略波动幅度，即债券的风险度。
-参照自己的波动需求选择！</t>
+参照自己的波动需求选择！如下是到期时间N（年）为横坐标与债券票面利率为纵坐标的久期热力图：</t>
         </is>
       </c>
     </row>
@@ -1137,6 +1167,7 @@
     <mergeCell ref="H2:N25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/bond_analysis_results_2026-02-04.xlsx
+++ b/bond_analysis_results_2026-02-04.xlsx
@@ -578,11 +578,11 @@
         <is>
           <t>***************************如果不清楚存款利率变化会给债券带来怎样的风险，请直接选择无风险短期债券区***************************
 1.推荐在四大行和招商银行购买。更推荐在招商银行购买，菜单更人性化。
-2.目前接口只能抓取到机构间的数据和收益率，实际利率会有一点点点点降低，银行柜台债小概率会搜不到某个国债（未面向个人投资者），详情见银行。
+2.目前接口只能抓取到机构间的数据和收益率，个人购买的收益率可能会低0.1%，且小概率会搜不到某个国债（因为有些债不面向个人投资者）。
 3.如何度量债券风险：一笔钱距离你越久远，利率变化对你即将获得的所有钱产生的蝴蝶效应越大。时间是决定债券波动率的决定因素。
 4.久期是什么？为什么久期能够估算利率的杠杆率？
-假设你购买了30年期限的，持有到期的年收益率为2%的国债，购买额度100万。每一年会给2万元利息，最后一年连本带息付102万。
-让我们想象一块无重力木板，将一整条木板等分成30份相同长度后划分刻度，第0年不付息，0这个刻度不放钱，1-29年在每一个刻度上放n年后的2万元，最后一个刻度上放30年后的102万
+假设你购买了30年期限的，持有到期的票面利率为2%的国债，购买额度100万。每一年会给2万元利息，最后一年连本带息付102万。
+让我们想象一块无重力木板，将一整条木板等分成30份相同长度后划分刻度，第0年不付息，0这个刻度不放钱，1-29年在每一个刻度上放x年后的2万元，最后一个刻度上放30年后的102万
 然后，找到木板两边平衡的支点（重心），重心所在的刻度就是这段现金流的久期（久期单位为年）。这就是麦考利久期的物理意义——现金流时间的加权平均（权重是现金流的现值）。
 证明这段钱（受到利率的影响程度）等效于一个剩余期限为久期年的一笔钱。
 在本例中，想要获得久期，我们首先把未来的钱计算成现值。
